--- a/FakeDataCreate/target/classes/Configuration.xlsx
+++ b/FakeDataCreate/target/classes/Configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuruKrishna\git\FakeDataCreate\FakeDataCreate\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA246D8B-EABF-44EF-8413-D21F02318FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7B31E-900C-4142-A046-374FE52A6E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Configuration Attributes</t>
   </si>
@@ -46,18 +46,12 @@
     <t>havechar</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>NoOfData</t>
   </si>
   <si>
     <t>Type_Of_Data</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>isSuffleRequired</t>
   </si>
   <si>
@@ -65,13 +59,31 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>Name_Of_File</t>
+  </si>
+  <si>
+    <t>Mandetory_Files</t>
+  </si>
+  <si>
+    <t>Optional_Files</t>
+  </si>
+  <si>
+    <t>Only_Generate_Mandetory_Files</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +94,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,16 +155,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +453,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,76 +470,92 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -531,6 +578,14 @@
       <c r="B17" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{35BA4643-0BE6-4DA3-A616-2A7639C5A105}">
+      <formula1>"Valid,Invalid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B12 B3:B8" xr:uid="{C5C61E9C-0E3E-49C2-869F-869CAE4F5ACC}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
